--- a/biology/Zoologie/Civette_palmiste/Civette_palmiste.xlsx
+++ b/biology/Zoologie/Civette_palmiste/Civette_palmiste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,22 +490,24 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
 civette palmiste, sur le Wiktionnaire
 L'expression « civette palmiste » est un nom vernaculaire ambigu en français, pouvant désigner plusieurs espèces différentes de carnivores :
-la Civette palmiste à trois bandes (Arctogalidia trivirgata)[1] ;
-la Civette palmiste d'Owston (Chrotogale owstoni)[1] ;
-la Civette palmiste d'Hose (Diplogale hosei)[1] ;
-la Civette palmiste à bandes (Hemigalus derbyanus)[2] ;
-la Civette palmiste brune des Célèbes (Macrogalidia musschenbroekii)[1] ;
-la Civette palmiste africaine (Nandinia binotata)[2] ;
-la Civette palmiste à masque (Paguma larvata)[1] ;
-la Civette palmiste hermaphrodite (Paradoxurus hermaphroditus)[1] ;
-la Civette palmiste de Jerdon (P. jerdoni)[1] ;
-la Civette palmiste dorée (P. zeylonensis)[2].
+la Civette palmiste à trois bandes (Arctogalidia trivirgata) ;
+la Civette palmiste d'Owston (Chrotogale owstoni) ;
+la Civette palmiste d'Hose (Diplogale hosei) ;
+la Civette palmiste à bandes (Hemigalus derbyanus) ;
+la Civette palmiste brune des Célèbes (Macrogalidia musschenbroekii) ;
+la Civette palmiste africaine (Nandinia binotata) ;
+la Civette palmiste à masque (Paguma larvata) ;
+la Civette palmiste hermaphrodite (Paradoxurus hermaphroditus) ;
+la Civette palmiste de Jerdon (P. jerdoni) ;
+la Civette palmiste dorée (P. zeylonensis).
 			Civette palmiste à trois bandes (Arctogalidia trivirgata)
 			Civette palmiste d'Owston (Chrotogale owstoni)
 			Civette palmiste d'Hose (Diplogale hosei)
